--- a/agents/ConnectFour/csv/mCompeteMCTS-vs-MWrap-25runs-normF.xlsx
+++ b/agents/ConnectFour/csv/mCompeteMCTS-vs-MWrap-25runs-normF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolfgang\Documents\GitHub\GBG\agents\ConnectFour\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EDA0D3-9784-48AF-9514-B77C136D8B36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE2E42E-6A44-488E-B550-65B8842C5F4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="15">
   <si>
     <t>TDNTuple3Agt: USESYM:true, P:4, NORMALIZE:false, sigmoid:tanh, lambda:0.0, horizon:1, AFTERSTATE:false, learnFromRM: true</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>AB-DL</t>
+  </si>
+  <si>
+    <t>TCL-base</t>
   </si>
 </sst>
 </file>
@@ -903,10 +906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -964,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1">
         <v>1E-8</v>
@@ -975,8 +978,8 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4" s="1">
-        <v>-1.11022302462515E-16</v>
+      <c r="H4">
+        <v>0.92</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
@@ -996,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1">
         <v>1E-8</v>
@@ -1008,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="I5" t="s">
         <v>12</v>
@@ -1028,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E6" s="1">
         <v>1E-8</v>
@@ -1040,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="I6" t="s">
         <v>12</v>
@@ -1060,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E7" s="1">
         <v>1E-8</v>
@@ -1072,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
@@ -1092,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E8" s="1">
         <v>1E-8</v>
@@ -1104,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="I8" t="s">
         <v>12</v>
@@ -1124,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="E9" s="1">
         <v>1E-8</v>
@@ -1136,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="I9" t="s">
         <v>12</v>
@@ -1156,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="E10" s="1">
         <v>1E-8</v>
@@ -1179,7 +1182,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>25</v>
@@ -1188,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="E11" s="1">
         <v>1E-8</v>
@@ -1200,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="I11" t="s">
         <v>12</v>
@@ -1220,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="1">
         <v>1E-8</v>
@@ -1231,8 +1234,8 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" s="1">
-        <v>-1.11022302462515E-16</v>
+      <c r="H12">
+        <v>0.96</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
@@ -1252,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E13" s="1">
         <v>1E-8</v>
@@ -1264,7 +1267,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
@@ -1284,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E14" s="1">
         <v>1E-8</v>
@@ -1296,7 +1299,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
@@ -1316,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E15" s="1">
         <v>1E-8</v>
@@ -1348,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>300</v>
+        <v>750</v>
       </c>
       <c r="E16" s="1">
         <v>1E-8</v>
@@ -1360,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I16" t="s">
         <v>12</v>
@@ -1380,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="1">
         <v>1E-8</v>
@@ -1403,7 +1406,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18">
         <v>25</v>
@@ -1412,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>750</v>
+        <v>50</v>
       </c>
       <c r="E18" s="1">
         <v>1E-8</v>
@@ -1424,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
@@ -1435,7 +1438,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19">
         <v>25</v>
@@ -1444,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1">
         <v>1E-8</v>
@@ -1456,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="I19" t="s">
         <v>12</v>
@@ -1476,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="1">
         <v>1E-8</v>
@@ -1487,8 +1490,8 @@
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="H20" s="1">
-        <v>-1.11022302462515E-16</v>
+      <c r="H20">
+        <v>0.9</v>
       </c>
       <c r="I20" t="s">
         <v>12</v>
@@ -1508,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="E21" s="1">
         <v>1E-8</v>
@@ -1520,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="I21" t="s">
         <v>12</v>
@@ -1540,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E22" s="1">
         <v>1E-8</v>
@@ -1552,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I22" t="s">
         <v>12</v>
@@ -1572,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>200</v>
+        <v>750</v>
       </c>
       <c r="E23" s="1">
         <v>1E-8</v>
@@ -1584,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
@@ -1604,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="1">
         <v>1E-8</v>
@@ -1616,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="I24" t="s">
         <v>12</v>
@@ -1627,7 +1630,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25">
         <v>25</v>
@@ -1636,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="E25" s="1">
         <v>1E-8</v>
@@ -1648,7 +1651,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="I25" t="s">
         <v>12</v>
@@ -1659,7 +1662,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -1668,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>750</v>
+        <v>100</v>
       </c>
       <c r="E26" s="1">
         <v>1E-8</v>
@@ -1680,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="I26" t="s">
         <v>12</v>
@@ -1691,7 +1694,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B27">
         <v>25</v>
@@ -1700,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E27" s="1">
         <v>1E-8</v>
@@ -1712,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="I27" t="s">
         <v>12</v>
@@ -1732,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E28" s="1">
         <v>1E-8</v>
@@ -1744,7 +1747,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>7.9999999999999905E-2</v>
+        <v>0.96</v>
       </c>
       <c r="I28" t="s">
         <v>12</v>
@@ -1764,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="E29" s="1">
         <v>1E-8</v>
@@ -1776,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
         <v>12</v>
@@ -1796,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="E30" s="1">
         <v>1E-8</v>
@@ -1808,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
         <v>12</v>
@@ -1828,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="E31" s="1">
         <v>1E-8</v>
@@ -1840,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="I31" t="s">
         <v>12</v>
@@ -1851,7 +1854,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>25</v>
@@ -1860,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="E32" s="1">
         <v>1E-8</v>
@@ -1872,7 +1875,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="I32" t="s">
         <v>12</v>
@@ -1883,7 +1886,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33">
         <v>25</v>
@@ -1892,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E33" s="1">
         <v>1E-8</v>
@@ -1904,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="I33" t="s">
         <v>12</v>
@@ -1915,7 +1918,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B34">
         <v>25</v>
@@ -1924,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>750</v>
+        <v>200</v>
       </c>
       <c r="E34" s="1">
         <v>1E-8</v>
@@ -1936,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I34" t="s">
         <v>12</v>
@@ -1947,7 +1950,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35">
         <v>25</v>
@@ -1956,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="E35" s="1">
         <v>1E-8</v>
@@ -1968,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="I35" t="s">
         <v>12</v>
@@ -1988,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E36" s="1">
         <v>1E-8</v>
@@ -2000,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>7.9999999999999905E-2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="s">
         <v>12</v>
@@ -2020,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="D37">
-        <v>50</v>
+        <v>750</v>
       </c>
       <c r="E37" s="1">
         <v>1E-8</v>
@@ -2032,7 +2035,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="I37" t="s">
         <v>12</v>
@@ -2052,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="E38" s="1">
         <v>1E-8</v>
@@ -2064,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>0.84</v>
+        <v>0.98</v>
       </c>
       <c r="I38" t="s">
         <v>12</v>
@@ -2075,7 +2078,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B39">
         <v>25</v>
@@ -2084,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E39" s="1">
         <v>1E-8</v>
@@ -2096,10 +2099,10 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>0.9</v>
+        <v>0.77</v>
       </c>
       <c r="I39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2107,7 +2110,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B40">
         <v>25</v>
@@ -2116,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="D40">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E40" s="1">
         <v>1E-8</v>
@@ -2128,10 +2131,10 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>0.94</v>
+        <v>0.77</v>
       </c>
       <c r="I40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2139,7 +2142,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B41">
         <v>25</v>
@@ -2148,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="D41">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E41" s="1">
         <v>1E-8</v>
@@ -2160,10 +2163,10 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2171,7 +2174,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B42">
         <v>25</v>
@@ -2180,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="E42" s="1">
         <v>1E-8</v>
@@ -2192,10 +2195,10 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2203,7 +2206,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B43">
         <v>25</v>
@@ -2212,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="D43">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E43" s="1">
         <v>1E-8</v>
@@ -2223,11 +2226,11 @@
       <c r="G43">
         <v>1</v>
       </c>
-      <c r="H43">
-        <v>0.98</v>
+      <c r="H43" s="1">
+        <v>-1.11022302462515E-16</v>
       </c>
       <c r="I43" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2235,7 +2238,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B44">
         <v>25</v>
@@ -2255,11 +2258,11 @@
       <c r="G44">
         <v>1</v>
       </c>
-      <c r="H44">
-        <v>0.77</v>
+      <c r="H44" s="1">
+        <v>-1.11022302462515E-16</v>
       </c>
       <c r="I44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2267,7 +2270,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B45">
         <v>25</v>
@@ -2276,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E45" s="1">
         <v>1E-8</v>
@@ -2287,11 +2290,11 @@
       <c r="G45">
         <v>1</v>
       </c>
-      <c r="H45">
-        <v>0.77</v>
+      <c r="H45" s="1">
+        <v>-1.11022302462515E-16</v>
       </c>
       <c r="I45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2299,7 +2302,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B46">
         <v>25</v>
@@ -2320,10 +2323,10 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>0.8</v>
+        <v>7.9999999999999905E-2</v>
       </c>
       <c r="I46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2331,7 +2334,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B47">
         <v>25</v>
@@ -2340,24 +2343,184 @@
         <v>0</v>
       </c>
       <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>7.9999999999999905E-2</v>
+      </c>
+      <c r="I47" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>25</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
         <v>1000</v>
       </c>
-      <c r="E47" s="1">
-        <v>1E-8</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>0.8</v>
-      </c>
-      <c r="I47" t="s">
-        <v>13</v>
-      </c>
-      <c r="J47">
+      <c r="E48" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>-1.11022302462515E-16</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>25</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1000</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>-1.11022302462515E-16</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>1000</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>-1.11022302462515E-16</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>3</v>
+      </c>
+      <c r="B51">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>1000</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>7.9999999999999905E-2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>25</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>7.9999999999999905E-2</v>
+      </c>
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
+      <c r="J52">
         <v>0</v>
       </c>
     </row>

--- a/agents/ConnectFour/csv/mCompeteMCTS-vs-MWrap-25runs-normF.xlsx
+++ b/agents/ConnectFour/csv/mCompeteMCTS-vs-MWrap-25runs-normF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wolfgang\Documents\GitHub\GBG\agents\ConnectFour\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE2E42E-6A44-488E-B550-65B8842C5F4D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2897EC09-75C3-48A6-8122-DC69B9C1A196}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="15">
-  <si>
-    <t>TDNTuple3Agt: USESYM:true, P:4, NORMALIZE:false, sigmoid:tanh, lambda:0.0, horizon:1, AFTERSTATE:false, learnFromRM: true</t>
-  </si>
   <si>
     <t>TDNTuple3Agt: alpha_init-&gt;final:3.7-&gt;3.7, epsilon_init-&gt;final:0.1-&gt;0.0, gamma: 1.0, fixed n-tuple, mode=1, evalQ: 0, evalT: -1</t>
   </si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>TCL-base</t>
+  </si>
+  <si>
+    <t>TDNTuple3Agt: USESYM:true, P:4, NORMALIZE:false, sigmoid:tanh, lambda:0.0, horizon:1, AFTERSTATE:false, learnFromRM: true, 250.000 episodes</t>
   </si>
 </sst>
 </file>
@@ -908,52 +908,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
         <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -982,7 +982,7 @@
         <v>0.92</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1014,7 +1014,7 @@
         <v>0.88</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>0.84</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0.96</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0.98</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1142,7 +1142,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0.88</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>0.96</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1270,7 +1270,7 @@
         <v>0.98</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0.8</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0.98</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="I16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1398,7 +1398,7 @@
         <v>0.98</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>0.8</v>
       </c>
       <c r="I18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>0.9</v>
       </c>
       <c r="I19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0.9</v>
       </c>
       <c r="I20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0.92</v>
       </c>
       <c r="I21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1558,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0.98</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0.96</v>
       </c>
       <c r="I24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0.76</v>
       </c>
       <c r="I25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0.9</v>
       </c>
       <c r="I26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1718,7 +1718,7 @@
         <v>0.88</v>
       </c>
       <c r="I27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0.96</v>
       </c>
       <c r="I28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1878,7 +1878,7 @@
         <v>0.84</v>
       </c>
       <c r="I32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>0.84</v>
       </c>
       <c r="I33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1942,7 +1942,7 @@
         <v>0.9</v>
       </c>
       <c r="I34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1974,7 +1974,7 @@
         <v>0.94</v>
       </c>
       <c r="I35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0.98</v>
       </c>
       <c r="I38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0.77</v>
       </c>
       <c r="I39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0.77</v>
       </c>
       <c r="I40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>0.8</v>
       </c>
       <c r="I41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>0.8</v>
       </c>
       <c r="I42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>-1.11022302462515E-16</v>
       </c>
       <c r="I43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>-1.11022302462515E-16</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>-1.11022302462515E-16</v>
       </c>
       <c r="I45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>7.9999999999999905E-2</v>
       </c>
       <c r="I46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -2358,7 +2358,7 @@
         <v>7.9999999999999905E-2</v>
       </c>
       <c r="I47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -2390,7 +2390,7 @@
         <v>-1.11022302462515E-16</v>
       </c>
       <c r="I48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         <v>-1.11022302462515E-16</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>-1.11022302462515E-16</v>
       </c>
       <c r="I50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -2486,7 +2486,7 @@
         <v>7.9999999999999905E-2</v>
       </c>
       <c r="I51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>7.9999999999999905E-2</v>
       </c>
       <c r="I52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J52">
         <v>0</v>
